--- a/data/SmokeTest.xlsx
+++ b/data/SmokeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="7464" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="7464" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="checkElementsAddCandidate" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>First name;Last name;Middle name;Birth date;Email;Phone;Secondary phone;University name;Faculty name; Academic degree;Education start year;Graduation year;Additional education;Relevant skills;Languages;Referrer;Attempt count;Stream;Fill date</t>
   </si>
@@ -52,13 +52,16 @@
     <t>checkElAllCandiadtesMenu</t>
   </si>
   <si>
-    <t>№;First Name;Last Name;Middle Name;Phone;BirthDate;Email;Fill Date;Stream;Department</t>
-  </si>
-  <si>
-    <t>;№;First Name;Last Name;Middle Name;Phone;BirthDate;Email;Fill Date</t>
-  </si>
-  <si>
     <t>Petrov;Petr;Olololoevich;02.12.1993;sdhgjshgj@mail.ru;+380505465345;</t>
+  </si>
+  <si>
+    <t>№;Last Name;First Name;BirthDate;Phone;Email;Fill Date;Stream;Department</t>
+  </si>
+  <si>
+    <t>Petrov;Petr;02.12.1993;sdhgjshgj@mail.ru;+380505465345;</t>
+  </si>
+  <si>
+    <t>;№;Last Name;First Name;BirthDate;Age;Phone;Email;Candidate amount in stream;Fill Date</t>
   </si>
 </sst>
 </file>
@@ -440,40 +443,40 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -517,7 +520,7 @@
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -588,13 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -604,7 +607,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/SmokeTest.xlsx
+++ b/data/SmokeTest.xlsx
@@ -58,10 +58,10 @@
     <t>№;Last Name;First Name;BirthDate;Phone;Email;Fill Date;Stream;Department</t>
   </si>
   <si>
-    <t>Petrov;Petr;02.12.1993;sdhgjshgj@mail.ru;+380505465345;</t>
-  </si>
-  <si>
-    <t>;№;Last Name;First Name;BirthDate;Age;Phone;Email;Candidate amount in stream;Fill Date</t>
+    <t>Petrov;Petr;;02.12.1993;sdhgjshgj@mail.ru;+380505465345;</t>
+  </si>
+  <si>
+    <t>;№;Last Name;First Name;BirthDate;Age;Phone;Email;Fill Date</t>
   </si>
 </sst>
 </file>
